--- a/excel_skill.xlsx
+++ b/excel_skill.xlsx
@@ -16,14 +16,14 @@
     <sheet name="excel_skill" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">excel_skill!$A$2:$E$73</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">excel_skill!$A$2:$F$73</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="134">
   <si>
     <t>Excelの起動と終了ができる</t>
   </si>
@@ -506,6 +506,16 @@
       <t>チカン</t>
     </rPh>
     <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>回答</t>
+    <rPh sb="0" eb="2">
+      <t>カイトウ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>できる</t>
   </si>
 </sst>
 </file>
@@ -1200,15 +1210,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="テーブル2" displayName="テーブル2" ref="A1:E73" totalsRowShown="0">
-  <autoFilter ref="A1:E73"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="テーブル2" displayName="テーブル2" ref="A1:F73" totalsRowShown="0">
+  <autoFilter ref="A1:F73"/>
+  <tableColumns count="6">
     <tableColumn id="1" name="項番">
       <calculatedColumnFormula>ROW()-1</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="大項目" dataDxfId="2"/>
     <tableColumn id="3" name="詳細" dataDxfId="1"/>
     <tableColumn id="4" name="追加・削除"/>
+    <tableColumn id="5" name="回答"/>
     <tableColumn id="6" name="テキスト項番" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1511,7 +1522,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1525,7 +1536,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E73"/>
+  <dimension ref="A1:F73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -1535,11 +1546,12 @@
     <col min="2" max="2" width="13.125" style="2" customWidth="1"/>
     <col min="3" max="3" width="52.5" customWidth="1"/>
     <col min="4" max="4" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.375" customWidth="1"/>
+    <col min="5" max="5" width="13.25" customWidth="1"/>
+    <col min="6" max="6" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>124</v>
       </c>
@@ -1553,10 +1565,13 @@
         <v>127</v>
       </c>
       <c r="E1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A2">
         <f>ROW()-1</f>
         <v>1</v>
@@ -1567,11 +1582,14 @@
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3">
         <f t="shared" ref="A3:A68" si="0">ROW()-1</f>
         <v>2</v>
@@ -1579,11 +1597,14 @@
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1591,11 +1612,14 @@
       <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1603,11 +1627,14 @@
       <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1615,11 +1642,14 @@
       <c r="C6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" t="s">
+        <v>133</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1633,11 +1663,14 @@
       <c r="D7" t="s">
         <v>114</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1645,11 +1678,14 @@
       <c r="C8" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" t="s">
+        <v>133</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1657,11 +1693,14 @@
       <c r="C9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" t="s">
+        <v>133</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1669,11 +1708,14 @@
       <c r="C10" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" t="s">
+        <v>133</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11">
         <f>ROW()-1</f>
         <v>10</v>
@@ -1684,9 +1726,12 @@
       <c r="D11" t="s">
         <v>113</v>
       </c>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12">
         <f>ROW()-1</f>
         <v>11</v>
@@ -1697,9 +1742,12 @@
       <c r="D12" t="s">
         <v>113</v>
       </c>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E12" t="s">
+        <v>133</v>
+      </c>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1707,11 +1755,14 @@
       <c r="C13" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" t="s">
+        <v>133</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A14">
         <f>ROW()-1</f>
         <v>13</v>
@@ -1722,11 +1773,14 @@
       <c r="D14" t="s">
         <v>114</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" t="s">
+        <v>133</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1737,11 +1791,14 @@
       <c r="C15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" t="s">
+        <v>133</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1749,11 +1806,14 @@
       <c r="C16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" t="s">
+        <v>133</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1761,11 +1821,14 @@
       <c r="C17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" t="s">
+        <v>133</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1773,11 +1836,14 @@
       <c r="C18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" t="s">
+        <v>133</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1785,11 +1851,14 @@
       <c r="C19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" t="s">
+        <v>133</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1797,11 +1866,14 @@
       <c r="C20" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" t="s">
+        <v>133</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1809,11 +1881,14 @@
       <c r="C21" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" t="s">
+        <v>133</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:6" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1821,11 +1896,14 @@
       <c r="C22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" t="s">
+        <v>133</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1833,11 +1911,14 @@
       <c r="C23" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" t="s">
+        <v>133</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1845,11 +1926,14 @@
       <c r="C24" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" t="s">
+        <v>133</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:6" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1857,11 +1941,14 @@
       <c r="C25" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" t="s">
+        <v>133</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:6" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1869,11 +1956,14 @@
       <c r="C26" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" t="s">
+        <v>133</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1884,11 +1974,14 @@
       <c r="C27" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" t="s">
+        <v>133</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1896,11 +1989,14 @@
       <c r="C28" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" t="s">
+        <v>133</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1908,11 +2004,14 @@
       <c r="C29" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" t="s">
+        <v>133</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:6" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -1920,11 +2019,14 @@
       <c r="C30" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E30" t="s">
+        <v>133</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1932,11 +2034,14 @@
       <c r="C31" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" t="s">
+        <v>133</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -1944,11 +2049,14 @@
       <c r="C32" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E32" t="s">
+        <v>133</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1956,11 +2064,14 @@
       <c r="C33" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E33" t="s">
+        <v>133</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -1968,11 +2079,14 @@
       <c r="C34" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="E34" t="s">
+        <v>133</v>
+      </c>
+      <c r="F34" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -1980,11 +2094,14 @@
       <c r="C35" t="s">
         <v>43</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E35" t="s">
+        <v>133</v>
+      </c>
+      <c r="F35" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -1992,11 +2109,14 @@
       <c r="C36" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E36" t="s">
+        <v>133</v>
+      </c>
+      <c r="F36" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -2004,11 +2124,14 @@
       <c r="C37" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E37" t="s">
+        <v>133</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:6" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -2016,11 +2139,14 @@
       <c r="C38" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E38" t="s">
+        <v>133</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -2028,11 +2154,14 @@
       <c r="C39" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E39" t="s">
+        <v>133</v>
+      </c>
+      <c r="F39" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:6" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A40" s="6">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -2046,11 +2175,14 @@
       <c r="D40" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="E40" t="s">
+        <v>133</v>
+      </c>
+      <c r="F40" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A41" s="6">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -2062,11 +2194,14 @@
       <c r="D41" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="E41" s="7" t="s">
+      <c r="E41" t="s">
+        <v>133</v>
+      </c>
+      <c r="F41" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A42" s="6">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -2078,11 +2213,14 @@
       <c r="D42" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="E42" s="7" t="s">
+      <c r="E42" t="s">
+        <v>133</v>
+      </c>
+      <c r="F42" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A43" s="6">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -2094,11 +2232,14 @@
       <c r="D43" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="E43" s="7" t="s">
+      <c r="E43" t="s">
+        <v>133</v>
+      </c>
+      <c r="F43" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:6" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A44">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -2109,11 +2250,14 @@
       <c r="C44" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="E44" t="s">
+        <v>133</v>
+      </c>
+      <c r="F44" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A45">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -2121,11 +2265,14 @@
       <c r="C45" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="E45" t="s">
+        <v>133</v>
+      </c>
+      <c r="F45" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:6" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A46">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -2133,11 +2280,14 @@
       <c r="C46" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E46" t="s">
+        <v>133</v>
+      </c>
+      <c r="F46" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:6" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A47">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -2145,11 +2295,14 @@
       <c r="C47" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="E47" t="s">
+        <v>133</v>
+      </c>
+      <c r="F47" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A48">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -2157,11 +2310,14 @@
       <c r="C48" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="E48" t="s">
+        <v>133</v>
+      </c>
+      <c r="F48" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A49">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -2169,11 +2325,14 @@
       <c r="C49" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="E49" t="s">
+        <v>133</v>
+      </c>
+      <c r="F49" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A50">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -2181,11 +2340,14 @@
       <c r="C50" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="E50" t="s">
+        <v>133</v>
+      </c>
+      <c r="F50" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:6" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A51">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -2193,11 +2355,14 @@
       <c r="C51" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="E51" t="s">
+        <v>133</v>
+      </c>
+      <c r="F51" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:6" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A52">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -2205,11 +2370,14 @@
       <c r="C52" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="E52" t="s">
+        <v>133</v>
+      </c>
+      <c r="F52" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:6" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A53">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -2217,11 +2385,14 @@
       <c r="C53" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="E53" t="s">
+        <v>133</v>
+      </c>
+      <c r="F53" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A54">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -2229,11 +2400,14 @@
       <c r="C54" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="E54" t="s">
+        <v>133</v>
+      </c>
+      <c r="F54" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:6" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A55">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -2247,11 +2421,14 @@
       <c r="D55" t="s">
         <v>114</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="E55" t="s">
+        <v>133</v>
+      </c>
+      <c r="F55" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A56">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -2262,11 +2439,14 @@
       <c r="D56" t="s">
         <v>114</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="E56" t="s">
+        <v>133</v>
+      </c>
+      <c r="F56" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A57">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -2277,11 +2457,14 @@
       <c r="D57" t="s">
         <v>114</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="E57" t="s">
+        <v>133</v>
+      </c>
+      <c r="F57" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A58">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -2292,11 +2475,14 @@
       <c r="D58" t="s">
         <v>114</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="E58" t="s">
+        <v>133</v>
+      </c>
+      <c r="F58" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A59">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -2307,11 +2493,14 @@
       <c r="D59" t="s">
         <v>114</v>
       </c>
-      <c r="E59" s="1" t="s">
+      <c r="E59" t="s">
+        <v>133</v>
+      </c>
+      <c r="F59" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:6" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A60">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -2322,11 +2511,14 @@
       <c r="C60" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="E60" t="s">
+        <v>133</v>
+      </c>
+      <c r="F60" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A61">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -2334,11 +2526,14 @@
       <c r="C61" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="E61" t="s">
+        <v>133</v>
+      </c>
+      <c r="F61" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:6" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A62">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -2349,11 +2544,14 @@
       <c r="D62" t="s">
         <v>114</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="E62" t="s">
+        <v>133</v>
+      </c>
+      <c r="F62" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A63">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -2364,11 +2562,14 @@
       <c r="D63" t="s">
         <v>114</v>
       </c>
-      <c r="E63" s="1" t="s">
+      <c r="E63" t="s">
+        <v>133</v>
+      </c>
+      <c r="F63" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:6" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A64">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -2379,11 +2580,14 @@
       <c r="C64" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="E64" t="s">
+        <v>133</v>
+      </c>
+      <c r="F64" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A65">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -2391,11 +2595,14 @@
       <c r="C65" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E65" s="1" t="s">
+      <c r="E65" t="s">
+        <v>133</v>
+      </c>
+      <c r="F65" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:6" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A66">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -2403,11 +2610,14 @@
       <c r="C66" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E66" s="1" t="s">
+      <c r="E66" t="s">
+        <v>133</v>
+      </c>
+      <c r="F66" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:6" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A67">
         <f t="shared" si="0"/>
         <v>66</v>
@@ -2418,11 +2628,14 @@
       <c r="C67" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E67" s="1" t="s">
+      <c r="E67" t="s">
+        <v>133</v>
+      </c>
+      <c r="F67" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A68">
         <f t="shared" si="0"/>
         <v>67</v>
@@ -2430,11 +2643,14 @@
       <c r="C68" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E68" s="1" t="s">
+      <c r="E68" t="s">
+        <v>133</v>
+      </c>
+      <c r="F68" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A69">
         <f>ROW()-1</f>
         <v>68</v>
@@ -2445,9 +2661,12 @@
       <c r="D69" t="s">
         <v>113</v>
       </c>
-      <c r="E69" s="1"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E69" t="s">
+        <v>133</v>
+      </c>
+      <c r="F69" s="1"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A70">
         <f t="shared" ref="A70:A73" si="1">ROW()-1</f>
         <v>69</v>
@@ -2455,11 +2674,14 @@
       <c r="C70" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E70" s="1" t="s">
+      <c r="E70" t="s">
+        <v>133</v>
+      </c>
+      <c r="F70" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:6" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A71">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -2470,11 +2692,14 @@
       <c r="C71" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E71" s="1" t="s">
+      <c r="E71" t="s">
+        <v>133</v>
+      </c>
+      <c r="F71" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:6" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A72">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -2482,11 +2707,14 @@
       <c r="C72" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E72" s="1" t="s">
+      <c r="E72" t="s">
+        <v>133</v>
+      </c>
+      <c r="F72" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:6" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A73">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -2494,12 +2722,20 @@
       <c r="C73" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E73" s="1" t="s">
+      <c r="E73" t="s">
+        <v>133</v>
+      </c>
+      <c r="F73" s="1" t="s">
         <v>95</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E73">
+      <formula1>"できる,できない"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="83" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <tableParts count="1">
@@ -2519,12 +2755,12 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>excel_skill!I50:I55</xm:f>
-              <xm:sqref>I57</xm:sqref>
+              <xm:f>excel_skill!J50:J55</xm:f>
+              <xm:sqref>J57</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>excel_skill!J50:J55</xm:f>
-              <xm:sqref>J57</xm:sqref>
+              <xm:f>excel_skill!K50:K55</xm:f>
+              <xm:sqref>K57</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
